--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_007.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_007.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="127">
   <si>
     <t>Sezione</t>
   </si>
@@ -53,7 +53,7 @@
     <t>Formula</t>
   </si>
   <si>
-    <t>193</t>
+    <t>193.3</t>
   </si>
   <si>
     <t>SI</t>
@@ -281,39 +281,51 @@
     <t>Atto da trascrivere</t>
   </si>
   <si>
+    <t>Nome ente</t>
+  </si>
+  <si>
+    <t>evento.trascrizioneNascita.attoEstero.enteEstero</t>
+  </si>
+  <si>
+    <t>nomeEnte</t>
+  </si>
+  <si>
+    <t>Stato ente</t>
+  </si>
+  <si>
+    <t>nazioneEnte</t>
+  </si>
+  <si>
+    <t>Stato ente - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeNazioneEnte</t>
+  </si>
+  <si>
     <t>Data formazione documento</t>
   </si>
   <si>
+    <t>dataTrascrizione</t>
+  </si>
+  <si>
+    <t>Descrizione documento</t>
+  </si>
+  <si>
+    <t>descrizione</t>
+  </si>
+  <si>
+    <t>Estremi documento</t>
+  </si>
+  <si>
+    <t>estremiDocumento</t>
+  </si>
+  <si>
+    <t>Autorità mittente</t>
+  </si>
+  <si>
     <t>evento.trascrizioneNascita.atto.enteEstero</t>
   </si>
   <si>
-    <t>dataTrascrizione</t>
-  </si>
-  <si>
-    <t>Estremi documento</t>
-  </si>
-  <si>
-    <t>estremiDocumento</t>
-  </si>
-  <si>
-    <t>Nome ente</t>
-  </si>
-  <si>
-    <t>nomeEnte</t>
-  </si>
-  <si>
-    <t>Stato ente</t>
-  </si>
-  <si>
-    <t>nazioneEnte</t>
-  </si>
-  <si>
-    <t>Stato ente - Descrizione</t>
-  </si>
-  <si>
-    <t>nomeNazioneEnte</t>
-  </si>
-  <si>
     <t>Provincia ente</t>
   </si>
   <si>
@@ -336,6 +348,18 @@
   </si>
   <si>
     <t>nomeComuneEnte</t>
+  </si>
+  <si>
+    <t>Anagrafica Consolato</t>
+  </si>
+  <si>
+    <t>idAnagraficaConsolato</t>
+  </si>
+  <si>
+    <t>Anagrafica Consolato - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeAnagraficaConsolato</t>
   </si>
   <si>
     <t>Dati della trascrizione</t>
@@ -427,7 +451,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G82"/>
+  <dimension ref="A1:G88"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -436,8 +460,8 @@
     <col min="1" max="1" width="20.3984375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="32.41796875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="39.3671875" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="22.68359375" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="45.05859375" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="24.66796875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -1909,7 +1933,7 @@
         <v>98</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>90</v>
@@ -1929,7 +1953,7 @@
         <v>100</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>90</v>
@@ -1943,19 +1967,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>9</v>
@@ -1963,19 +1987,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>9</v>
@@ -1983,19 +2007,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>9</v>
@@ -2003,19 +2027,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>9</v>
@@ -2023,19 +2047,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>9</v>
@@ -2043,19 +2067,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B81" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B81" s="2" t="s">
-        <v>114</v>
-      </c>
       <c r="C81" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>9</v>
@@ -2063,21 +2087,141 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B82" s="2" t="s">
+      <c r="B85" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C82" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E82" s="2" t="s">
+      <c r="C85" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D85" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="F82" s="2" t="s">
+      <c r="E85" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F88" s="2" t="s">
         <v>9</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_007.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_007.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="132">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,6 +32,9 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
     <t>Allegati</t>
   </si>
   <si>
@@ -44,12 +47,21 @@
     <t/>
   </si>
   <si>
+    <t>{evento.trascrizioneNascita.tipoLuogoNascita,=,2}</t>
+  </si>
+  <si>
     <t>Attestazione di avvenuto parto</t>
   </si>
   <si>
+    <t>{evento.trascrizioneNascita.tipoLuogoNascita,=,3}</t>
+  </si>
+  <si>
     <t>Processo Verbale</t>
   </si>
   <si>
+    <t>{evento.trascrizioneNascita.tipoLuogoNascita,=,1}</t>
+  </si>
+  <si>
     <t>Formula</t>
   </si>
   <si>
@@ -69,6 +81,9 @@
   </si>
   <si>
     <t>numeroatto</t>
+  </si>
+  <si>
+    <t>obbligatoria</t>
   </si>
   <si>
     <t>Data formazione</t>
@@ -451,7 +466,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G88"/>
+  <dimension ref="A1:H88"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -463,6 +478,7 @@
     <col min="4" max="4" width="45.05859375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="24.66796875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="45.59375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -484,85 +500,100 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -584,1645 +615,1894 @@
       <c r="F6" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G6" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="E9" s="2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E52" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B52" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="F52" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B81" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D81" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C81" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>103</v>
-      </c>
       <c r="E81" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_007.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_007.xlsx
@@ -32,7 +32,7 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
-    <t>Condizioni obbligatorieta'</t>
+    <t>Si puo' ignorare la sezione per</t>
   </si>
   <si>
     <t>Allegati</t>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_007.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_007.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="133">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,43 +32,46 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
+    <t>Allegati</t>
+  </si>
+  <si>
+    <t>Attestazione di nascita</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>{evento.trascrizioneNascita.tipoLuogoNascita,=,2}</t>
+  </si>
+  <si>
+    <t>Attestazione di avvenuto parto</t>
+  </si>
+  <si>
+    <t>{evento.trascrizioneNascita.tipoLuogoNascita,=,3}</t>
+  </si>
+  <si>
+    <t>Processo Verbale</t>
+  </si>
+  <si>
+    <t>{evento.trascrizioneNascita.tipoLuogoNascita,=,1}</t>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>193.3</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
     <t>Si puo' ignorare la sezione per</t>
-  </si>
-  <si>
-    <t>Allegati</t>
-  </si>
-  <si>
-    <t>Attestazione di nascita</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>{evento.trascrizioneNascita.tipoLuogoNascita,=,2}</t>
-  </si>
-  <si>
-    <t>Attestazione di avvenuto parto</t>
-  </si>
-  <si>
-    <t>{evento.trascrizioneNascita.tipoLuogoNascita,=,3}</t>
-  </si>
-  <si>
-    <t>Processo Verbale</t>
-  </si>
-  <si>
-    <t>{evento.trascrizioneNascita.tipoLuogoNascita,=,1}</t>
-  </si>
-  <si>
-    <t>Formula</t>
-  </si>
-  <si>
-    <t>193.3</t>
-  </si>
-  <si>
-    <t>SI</t>
   </si>
   <si>
     <t>Formazione atto</t>
@@ -616,1893 +619,1893 @@
         <v>5</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E54" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B54" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B79" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D79" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C79" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>108</v>
-      </c>
       <c r="E79" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_007.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_007.xlsx
@@ -47,19 +47,19 @@
     <t/>
   </si>
   <si>
-    <t>{evento.trascrizioneNascita.tipoLuogoNascita,=,2}</t>
+    <t>evento.trascrizioneNascita.tipoLuogoNascita,=,2</t>
   </si>
   <si>
     <t>Attestazione di avvenuto parto</t>
   </si>
   <si>
-    <t>{evento.trascrizioneNascita.tipoLuogoNascita,=,3}</t>
+    <t>evento.trascrizioneNascita.tipoLuogoNascita,=,3</t>
   </si>
   <si>
     <t>Processo Verbale</t>
   </si>
   <si>
-    <t>{evento.trascrizioneNascita.tipoLuogoNascita,=,1}</t>
+    <t>evento.trascrizioneNascita.tipoLuogoNascita,=,1</t>
   </si>
   <si>
     <t>Formula</t>
@@ -481,7 +481,7 @@
     <col min="4" max="4" width="45.05859375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="24.66796875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="45.59375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="44.2109375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_007.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_007.xlsx
@@ -2194,7 +2194,7 @@
         <v>106</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>96</v>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_007.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_007.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="136">
   <si>
     <t>Sezione</t>
   </si>
@@ -173,6 +173,12 @@
     <t>nomeComuneNascita</t>
   </si>
   <si>
+    <t>Località estera</t>
+  </si>
+  <si>
+    <t>localitaEsteraNascita</t>
+  </si>
+  <si>
     <t>Nazionalita</t>
   </si>
   <si>
@@ -318,6 +324,9 @@
   </si>
   <si>
     <t>nomeNazioneEnte</t>
+  </si>
+  <si>
+    <t>comuneEstero</t>
   </si>
   <si>
     <t>Data formazione documento</t>
@@ -469,7 +478,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H88"/>
+  <dimension ref="A1:H92"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -952,7 +961,7 @@
         <v>53</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>33</v>
@@ -1044,7 +1053,7 @@
         <v>61</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>33</v>
@@ -1159,7 +1168,7 @@
         <v>71</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>33</v>
@@ -1222,19 +1231,19 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B33" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="C33" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D33" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E33" s="2" t="s">
         <v>78</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
@@ -1245,19 +1254,19 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
@@ -1268,19 +1277,19 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
@@ -1291,19 +1300,19 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
@@ -1314,19 +1323,19 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
@@ -1337,19 +1346,19 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
@@ -1360,19 +1369,19 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
@@ -1383,19 +1392,19 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
@@ -1406,19 +1415,19 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
@@ -1429,19 +1438,19 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
@@ -1452,19 +1461,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -1475,19 +1484,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1498,19 +1507,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1521,19 +1530,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1544,19 +1553,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1567,19 +1576,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1590,19 +1599,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1613,19 +1622,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1636,19 +1645,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1659,19 +1668,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1682,19 +1691,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1705,19 +1714,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1731,16 +1740,16 @@
         <v>79</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>32</v>
+        <v>75</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>80</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>34</v>
+        <v>76</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1754,7 +1763,7 @@
         <v>79</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>18</v>
@@ -1763,7 +1772,7 @@
         <v>80</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1774,10 +1783,10 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>81</v>
+        <v>32</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
@@ -1786,7 +1795,7 @@
         <v>82</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>83</v>
+        <v>34</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1797,19 +1806,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>84</v>
+        <v>35</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>82</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>85</v>
+        <v>36</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1820,19 +1829,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>37</v>
+        <v>83</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>38</v>
+        <v>85</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1843,19 +1852,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>39</v>
+        <v>86</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>40</v>
+        <v>87</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1866,19 +1875,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>86</v>
+        <v>37</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>82</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>87</v>
+        <v>38</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1889,19 +1898,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>88</v>
+        <v>39</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>82</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>89</v>
+        <v>40</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1912,19 +1921,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>41</v>
+        <v>88</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>42</v>
+        <v>89</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1935,19 +1944,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>90</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>44</v>
+        <v>91</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -1958,19 +1967,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -1981,19 +1990,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2004,19 +2013,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2027,19 +2036,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>51</v>
+        <v>93</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2050,10 +2059,10 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>92</v>
+        <v>49</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
@@ -2062,7 +2071,7 @@
         <v>82</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>93</v>
+        <v>50</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2073,19 +2082,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>95</v>
+        <v>51</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>97</v>
+        <v>52</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2096,19 +2105,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B71" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B71" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="C71" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2119,19 +2128,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>100</v>
+        <v>53</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>101</v>
+        <v>54</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2142,19 +2151,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2165,19 +2174,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2188,19 +2197,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2211,19 +2220,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>95</v>
+        <v>53</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2234,19 +2243,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="B77" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D77" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C77" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>109</v>
-      </c>
       <c r="E77" s="2" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2257,19 +2266,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E78" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>101</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2280,19 +2289,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="B79" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E79" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>111</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2303,19 +2312,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B80" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D80" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C80" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>109</v>
-      </c>
       <c r="E80" s="2" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2326,19 +2335,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2349,19 +2358,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2372,19 +2381,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2395,19 +2404,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2418,19 +2427,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2441,19 +2450,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2464,19 +2473,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E87" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>129</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2487,24 +2496,116 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E90" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B88" s="2" t="s">
+      <c r="F90" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B91" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="C88" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E88" s="2" t="s">
+      <c r="C91" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E91" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="F88" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G88" s="2" t="s">
+      <c r="F91" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G92" s="2" t="s">
         <v>24</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_007.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_007.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="146">
   <si>
     <t>Sezione</t>
   </si>
@@ -249,6 +249,36 @@
   </si>
   <si>
     <t>flagFirmatario</t>
+  </si>
+  <si>
+    <t>Provincia AIRE</t>
+  </si>
+  <si>
+    <t>idProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Provincia AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE</t>
+  </si>
+  <si>
+    <t>idComuneAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneAIRE</t>
+  </si>
+  <si>
+    <t>Trasmissione residenza estera</t>
+  </si>
+  <si>
+    <t>flagTrasmissioneResidenzaEstera</t>
   </si>
   <si>
     <t>Padre</t>
@@ -478,7 +508,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H92"/>
+  <dimension ref="A1:H106"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -488,7 +518,7 @@
     <col min="2" max="2" width="32.41796875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="45.05859375" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="24.66796875" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="30.5234375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="44.2109375" customWidth="true" bestFit="true"/>
   </cols>
@@ -1254,19 +1284,19 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B34" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="C34" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E34" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
@@ -1277,19 +1307,19 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>79</v>
+        <v>31</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>35</v>
+        <v>81</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>80</v>
+        <v>33</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>36</v>
+        <v>82</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
@@ -1300,19 +1330,19 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>79</v>
+        <v>31</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>37</v>
+        <v>83</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>80</v>
+        <v>33</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>38</v>
+        <v>84</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
@@ -1323,19 +1353,19 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>79</v>
+        <v>31</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>39</v>
+        <v>85</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>80</v>
+        <v>33</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>40</v>
+        <v>86</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
@@ -1346,19 +1376,19 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>79</v>
+        <v>31</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>41</v>
+        <v>87</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>80</v>
+        <v>33</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
@@ -1369,19 +1399,19 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
@@ -1392,19 +1422,19 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
@@ -1415,19 +1445,19 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
@@ -1438,19 +1468,19 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
@@ -1461,19 +1491,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -1484,19 +1514,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1507,19 +1537,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1530,19 +1560,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1553,19 +1583,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1576,19 +1606,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1599,19 +1629,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1622,19 +1652,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1645,19 +1675,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1668,19 +1698,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1691,19 +1721,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1714,19 +1744,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1737,19 +1767,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1760,19 +1790,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1783,19 +1813,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>32</v>
+        <v>69</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1806,19 +1836,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>35</v>
+        <v>71</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1829,19 +1859,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1852,19 +1882,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1875,19 +1905,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1898,19 +1928,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1921,19 +1951,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B63" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B63" s="2" t="s">
-        <v>88</v>
-      </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1944,19 +1974,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="B64" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D64" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C64" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D64" s="2" t="s">
+      <c r="E64" s="2" t="s">
         <v>84</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>91</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -1967,19 +1997,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>41</v>
+        <v>85</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>42</v>
+        <v>86</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -1990,19 +2020,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>44</v>
+        <v>88</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2013,19 +2043,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2036,19 +2066,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>93</v>
+        <v>35</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2059,19 +2089,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>49</v>
+        <v>93</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2082,19 +2112,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>51</v>
+        <v>96</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>52</v>
+        <v>97</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2105,19 +2135,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>94</v>
+        <v>37</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>95</v>
+        <v>38</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2128,19 +2158,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2151,16 +2181,16 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>99</v>
@@ -2174,16 +2204,16 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>100</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>101</v>
@@ -2197,19 +2227,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>102</v>
+        <v>41</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>103</v>
+        <v>42</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2220,19 +2250,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>53</v>
+        <v>102</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>104</v>
+        <v>44</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2243,19 +2273,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>105</v>
+        <v>45</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>106</v>
+        <v>46</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2266,19 +2296,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>108</v>
+        <v>48</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2289,19 +2319,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>109</v>
+        <v>49</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2312,19 +2342,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>97</v>
+        <v>51</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>99</v>
+        <v>52</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2335,19 +2365,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2358,19 +2388,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2381,19 +2411,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>113</v>
+        <v>81</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>114</v>
+        <v>82</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2404,19 +2434,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>115</v>
+        <v>83</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>116</v>
+        <v>84</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2427,19 +2457,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>117</v>
+        <v>85</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>118</v>
+        <v>86</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2450,19 +2480,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>119</v>
+        <v>53</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>120</v>
+        <v>54</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2473,19 +2503,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2496,19 +2526,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E88" s="2" t="s">
         <v>111</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E88" s="2" t="s">
-        <v>124</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2519,19 +2549,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2542,19 +2572,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>129</v>
+        <v>53</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2565,19 +2595,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2588,24 +2618,346 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B102" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B92" s="2" t="s">
+      <c r="C102" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E102" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C92" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E92" s="2" t="s">
+      <c r="F102" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="F92" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G92" s="2" t="s">
+      <c r="B103" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G106" s="2" t="s">
         <v>24</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_007.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_007.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="148">
   <si>
     <t>Sezione</t>
   </si>
@@ -125,6 +125,12 @@
     <t>nome</t>
   </si>
   <si>
+    <t>Identificativo unico nazionale</t>
+  </si>
+  <si>
+    <t>idANPR</t>
+  </si>
+  <si>
     <t>Sesso</t>
   </si>
   <si>
@@ -179,13 +185,13 @@
     <t>localitaEsteraNascita</t>
   </si>
   <si>
-    <t>Nazionalita</t>
+    <t>Nazionalità</t>
   </si>
   <si>
     <t>idNazionalita</t>
   </si>
   <si>
-    <t>Nazionalita - Descrizione</t>
+    <t>Nazionalità - Descrizione</t>
   </si>
   <si>
     <t>nazionalita</t>
@@ -508,7 +514,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H106"/>
+  <dimension ref="A1:H109"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -807,7 +813,7 @@
         <v>37</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>33</v>
@@ -899,7 +905,7 @@
         <v>45</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>33</v>
@@ -1014,7 +1020,7 @@
         <v>55</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>33</v>
@@ -1106,7 +1112,7 @@
         <v>63</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>33</v>
@@ -1221,7 +1227,7 @@
         <v>73</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>33</v>
@@ -1290,7 +1296,7 @@
         <v>79</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>33</v>
@@ -1399,19 +1405,19 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B39" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="C39" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E39" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
@@ -1422,19 +1428,19 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
@@ -1445,19 +1451,19 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
@@ -1468,19 +1474,19 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
@@ -1491,19 +1497,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -1514,19 +1520,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1537,19 +1543,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1560,19 +1566,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1583,19 +1589,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1606,19 +1612,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1629,19 +1635,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1652,19 +1658,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1675,19 +1681,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1698,19 +1704,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1721,19 +1727,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1744,19 +1750,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1767,19 +1773,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1790,19 +1796,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1813,19 +1819,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1836,19 +1842,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1859,19 +1865,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1882,19 +1888,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1905,19 +1911,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1928,19 +1934,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1951,19 +1957,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1974,19 +1980,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -1997,19 +2003,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2020,19 +2026,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2046,7 +2052,7 @@
         <v>91</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>32</v>
+        <v>87</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
@@ -2055,7 +2061,7 @@
         <v>92</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>34</v>
+        <v>88</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2069,16 +2075,16 @@
         <v>91</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>35</v>
+        <v>89</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>92</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>36</v>
+        <v>90</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2089,10 +2095,10 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>93</v>
+        <v>32</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
@@ -2101,7 +2107,7 @@
         <v>94</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>95</v>
+        <v>34</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2112,19 +2118,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>96</v>
+        <v>35</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>94</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>97</v>
+        <v>36</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2135,19 +2141,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>37</v>
+        <v>95</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>38</v>
+        <v>97</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2158,19 +2164,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>39</v>
+        <v>98</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2181,10 +2187,10 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>98</v>
+        <v>37</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
@@ -2193,7 +2199,7 @@
         <v>94</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>99</v>
+        <v>38</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2204,19 +2210,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>100</v>
+        <v>39</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>94</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>101</v>
+        <v>40</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2227,7 +2233,7 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>41</v>
@@ -2236,7 +2242,7 @@
         <v>18</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>42</v>
@@ -2250,19 +2256,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>44</v>
+        <v>101</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2273,19 +2279,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>45</v>
+        <v>102</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>46</v>
+        <v>103</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2296,19 +2302,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>103</v>
+        <v>43</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2319,19 +2325,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>49</v>
+        <v>104</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2342,19 +2348,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2365,10 +2371,10 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
@@ -2377,7 +2383,7 @@
         <v>94</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>105</v>
+        <v>50</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2388,19 +2394,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2411,19 +2417,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2434,19 +2440,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>84</v>
+        <v>107</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2457,19 +2463,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2480,19 +2486,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>54</v>
+        <v>84</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2503,19 +2509,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2526,19 +2532,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>110</v>
+        <v>87</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2549,19 +2555,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>112</v>
+        <v>55</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>113</v>
+        <v>56</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2572,19 +2578,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>53</v>
+        <v>109</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2595,19 +2601,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2618,19 +2624,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2641,19 +2647,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>119</v>
+        <v>55</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2664,19 +2670,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2687,19 +2693,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="B95" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D95" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C95" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>122</v>
-      </c>
       <c r="E95" s="2" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2710,19 +2716,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B96" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B96" s="2" t="s">
-        <v>112</v>
-      </c>
       <c r="C96" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E96" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="E96" s="2" t="s">
-        <v>113</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2733,19 +2739,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2756,19 +2762,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2779,19 +2785,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2802,19 +2808,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2825,19 +2831,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2848,19 +2854,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2871,19 +2877,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2894,19 +2900,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2917,19 +2923,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B105" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B105" s="2" t="s">
-        <v>141</v>
-      </c>
       <c r="C105" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -2940,24 +2946,93 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B108" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B106" s="2" t="s">
+      <c r="C108" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E108" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C106" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E106" s="2" t="s">
+      <c r="F108" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="F106" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G106" s="2" t="s">
+      <c r="B109" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G109" s="2" t="s">
         <v>24</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_007.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_007.xlsx
@@ -56,7 +56,7 @@
     <t>evento.trascrizioneNascita.tipoLuogoNascita,=,3</t>
   </si>
   <si>
-    <t>Processo Verbale</t>
+    <t>Processo Verbale (Redatto in luogo particolare da autorità incaricata)</t>
   </si>
   <si>
     <t>evento.trascrizioneNascita.tipoLuogoNascita,=,1</t>
@@ -521,7 +521,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="20.3984375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="32.41796875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="62.84765625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="45.05859375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="30.5234375" customWidth="true" bestFit="true"/>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_007.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_007.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="150">
   <si>
     <t>Sezione</t>
   </si>
@@ -195,6 +195,12 @@
   </si>
   <si>
     <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Residenza non nota</t>
+  </si>
+  <si>
+    <t>flagIrreperibile</t>
   </si>
   <si>
     <t>Stato di residenza</t>
@@ -514,7 +520,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H109"/>
+  <dimension ref="A1:H111"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1089,7 +1095,7 @@
         <v>61</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>33</v>
@@ -1112,7 +1118,7 @@
         <v>63</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>33</v>
@@ -1250,7 +1256,7 @@
         <v>75</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>33</v>
@@ -1319,7 +1325,7 @@
         <v>81</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>33</v>
@@ -1428,19 +1434,19 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B40" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="C40" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E40" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
@@ -1451,19 +1457,19 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
@@ -1474,19 +1480,19 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
@@ -1497,19 +1503,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -1520,19 +1526,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1543,19 +1549,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1566,19 +1572,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1589,19 +1595,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1612,19 +1618,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1635,19 +1641,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1658,19 +1664,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1681,19 +1687,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1704,19 +1710,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1727,19 +1733,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1750,19 +1756,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1773,19 +1779,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1796,19 +1802,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1819,19 +1825,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1842,19 +1848,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1865,19 +1871,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1888,19 +1894,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1911,19 +1917,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1934,19 +1940,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1957,19 +1963,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1980,19 +1986,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2003,19 +2009,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2026,19 +2032,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2049,19 +2055,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2072,19 +2078,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2098,7 +2104,7 @@
         <v>93</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>32</v>
+        <v>89</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
@@ -2107,7 +2113,7 @@
         <v>94</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>34</v>
+        <v>90</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2121,16 +2127,16 @@
         <v>93</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>35</v>
+        <v>91</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>94</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>36</v>
+        <v>92</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2141,10 +2147,10 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>95</v>
+        <v>32</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
@@ -2153,7 +2159,7 @@
         <v>96</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>97</v>
+        <v>34</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2164,19 +2170,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>98</v>
+        <v>35</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>96</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>99</v>
+        <v>36</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2187,19 +2193,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>37</v>
+        <v>97</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>38</v>
+        <v>99</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2210,19 +2216,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>39</v>
+        <v>100</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>40</v>
+        <v>101</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2233,19 +2239,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2256,19 +2262,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>100</v>
+        <v>39</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>96</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>101</v>
+        <v>40</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2279,19 +2285,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>102</v>
+        <v>41</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>96</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>103</v>
+        <v>42</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2302,19 +2308,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>43</v>
+        <v>102</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>44</v>
+        <v>103</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2325,19 +2331,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>104</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>46</v>
+        <v>105</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2348,19 +2354,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2371,19 +2377,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2394,19 +2400,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2417,19 +2423,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>53</v>
+        <v>107</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2440,10 +2446,10 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>106</v>
+        <v>51</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
@@ -2452,7 +2458,7 @@
         <v>96</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>107</v>
+        <v>52</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2463,19 +2469,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2486,19 +2492,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>83</v>
+        <v>108</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>84</v>
+        <v>109</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2509,19 +2515,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2532,19 +2538,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2555,19 +2561,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>55</v>
+        <v>87</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>56</v>
+        <v>88</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2578,19 +2584,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>111</v>
+        <v>90</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2601,19 +2607,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>112</v>
+        <v>55</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>113</v>
+        <v>56</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2624,19 +2630,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2647,19 +2653,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>55</v>
+        <v>114</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2670,19 +2676,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B94" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E94" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E94" s="2" t="s">
-        <v>118</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2693,19 +2699,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>119</v>
+        <v>55</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2716,19 +2722,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2739,19 +2745,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2762,19 +2768,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B98" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B98" s="2" t="s">
+      <c r="C98" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D98" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C98" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D98" s="2" t="s">
+      <c r="E98" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="E98" s="2" t="s">
-        <v>113</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2785,19 +2791,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2808,19 +2814,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2831,19 +2837,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2854,19 +2860,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2877,19 +2883,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2900,19 +2906,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2923,19 +2929,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -2946,19 +2952,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -2969,19 +2975,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B107" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B107" s="2" t="s">
-        <v>141</v>
-      </c>
       <c r="C107" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -2992,19 +2998,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3015,24 +3021,70 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B110" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B109" s="2" t="s">
+      <c r="C110" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E110" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="C109" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E109" s="2" t="s">
+      <c r="F110" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="F109" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G109" s="2" t="s">
+      <c r="B111" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G111" s="2" t="s">
         <v>24</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_007.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_007.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="791" uniqueCount="152">
   <si>
     <t>Sezione</t>
   </si>
@@ -195,6 +195,12 @@
   </si>
   <si>
     <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Comprensione</t>
+  </si>
+  <si>
+    <t>tipoImpedimento</t>
   </si>
   <si>
     <t>Residenza non nota</t>
@@ -520,7 +526,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H111"/>
+  <dimension ref="A1:H113"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1279,7 +1285,7 @@
         <v>77</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>33</v>
@@ -1348,7 +1354,7 @@
         <v>83</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>33</v>
@@ -1457,19 +1463,19 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B41" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B41" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="C41" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E41" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
@@ -1480,19 +1486,19 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
@@ -1503,19 +1509,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -1526,19 +1532,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1549,19 +1555,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1572,19 +1578,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1595,19 +1601,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1618,19 +1624,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1641,19 +1647,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1664,19 +1670,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1687,19 +1693,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1710,19 +1716,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1733,19 +1739,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1756,19 +1762,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1779,19 +1785,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1802,19 +1808,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1825,19 +1831,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1848,19 +1854,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1871,19 +1877,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1894,19 +1900,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1917,19 +1923,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1940,19 +1946,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1963,19 +1969,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1986,19 +1992,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2009,19 +2015,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2032,19 +2038,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2055,19 +2061,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2078,19 +2084,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2101,19 +2107,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2124,19 +2130,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2150,7 +2156,7 @@
         <v>95</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>32</v>
+        <v>91</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
@@ -2159,7 +2165,7 @@
         <v>96</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>34</v>
+        <v>92</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2173,16 +2179,16 @@
         <v>95</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>35</v>
+        <v>93</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>96</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>36</v>
+        <v>94</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2193,10 +2199,10 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>97</v>
+        <v>32</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
@@ -2205,7 +2211,7 @@
         <v>98</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>99</v>
+        <v>34</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2216,19 +2222,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>98</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>101</v>
+        <v>36</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2239,19 +2245,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>37</v>
+        <v>99</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>38</v>
+        <v>101</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2262,19 +2268,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>39</v>
+        <v>102</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>40</v>
+        <v>103</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2285,19 +2291,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2308,19 +2314,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>102</v>
+        <v>39</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>98</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>103</v>
+        <v>40</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2331,19 +2337,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>104</v>
+        <v>41</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>98</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>105</v>
+        <v>42</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2354,19 +2360,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>43</v>
+        <v>104</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>44</v>
+        <v>105</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2377,19 +2383,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>106</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>46</v>
+        <v>107</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2400,19 +2406,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2423,19 +2429,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2446,19 +2452,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2469,19 +2475,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>53</v>
+        <v>109</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2492,10 +2498,10 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>108</v>
+        <v>51</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
@@ -2504,7 +2510,7 @@
         <v>98</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>109</v>
+        <v>52</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2515,19 +2521,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2538,19 +2544,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>86</v>
+        <v>111</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2561,19 +2567,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2584,19 +2590,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2607,19 +2613,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>55</v>
+        <v>89</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>56</v>
+        <v>90</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2630,19 +2636,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2653,19 +2659,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>114</v>
+        <v>55</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>115</v>
+        <v>56</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2676,19 +2682,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2699,19 +2705,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>55</v>
+        <v>116</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2722,19 +2728,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B96" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E96" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E96" s="2" t="s">
-        <v>120</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2745,19 +2751,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>121</v>
+        <v>55</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2768,19 +2774,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2791,19 +2797,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2814,19 +2820,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B100" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B100" s="2" t="s">
+      <c r="C100" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D100" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C100" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D100" s="2" t="s">
+      <c r="E100" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="E100" s="2" t="s">
-        <v>115</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2837,19 +2843,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2860,19 +2866,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2883,19 +2889,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2906,19 +2912,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2929,19 +2935,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -2952,19 +2958,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -2975,19 +2981,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -2998,19 +3004,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3021,19 +3027,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B109" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B109" s="2" t="s">
-        <v>143</v>
-      </c>
       <c r="C109" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3044,19 +3050,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3067,24 +3073,70 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B112" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B111" s="2" t="s">
+      <c r="C112" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E112" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="C111" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E111" s="2" t="s">
+      <c r="F112" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="F111" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G111" s="2" t="s">
+      <c r="B113" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G113" s="2" t="s">
         <v>24</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_007.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_007.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="791" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="149">
   <si>
     <t>Sezione</t>
   </si>
@@ -459,15 +459,6 @@
   </si>
   <si>
     <t>testoLibero</t>
-  </si>
-  <si>
-    <t>Dettagli evento</t>
-  </si>
-  <si>
-    <t>Tipo luogo nascita</t>
-  </si>
-  <si>
-    <t>tipoLuogoNascita</t>
   </si>
 </sst>
 </file>
@@ -526,7 +517,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H113"/>
+  <dimension ref="A1:H112"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -3117,29 +3108,6 @@
         <v>24</v>
       </c>
     </row>
-    <row r="113">
-      <c r="A113" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="B113" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="C113" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E113" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="F113" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G113" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_007.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_007.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="791" uniqueCount="152">
   <si>
     <t>Sezione</t>
   </si>
@@ -459,6 +459,15 @@
   </si>
   <si>
     <t>testoLibero</t>
+  </si>
+  <si>
+    <t>Dettagli evento</t>
+  </si>
+  <si>
+    <t>Tipo luogo nascita</t>
+  </si>
+  <si>
+    <t>tipoLuogoNascita</t>
   </si>
 </sst>
 </file>
@@ -517,7 +526,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H112"/>
+  <dimension ref="A1:H113"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -3108,6 +3117,29 @@
         <v>24</v>
       </c>
     </row>
+    <row r="113">
+      <c r="A113" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G113" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_007.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_007.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="791" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="156">
   <si>
     <t>Sezione</t>
   </si>
@@ -135,6 +135,18 @@
   </si>
   <si>
     <t>sesso</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita</t>
+  </si>
+  <si>
+    <t>idFormatodata</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>formatodata</t>
   </si>
   <si>
     <t>Data nascita</t>
@@ -526,7 +538,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H113"/>
+  <dimension ref="A1:H117"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -871,7 +883,7 @@
         <v>41</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>33</v>
@@ -894,7 +906,7 @@
         <v>43</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>33</v>
@@ -940,7 +952,7 @@
         <v>47</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>33</v>
@@ -963,7 +975,7 @@
         <v>49</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>33</v>
@@ -1055,7 +1067,7 @@
         <v>57</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>33</v>
@@ -1078,7 +1090,7 @@
         <v>59</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>33</v>
@@ -1101,7 +1113,7 @@
         <v>61</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>33</v>
@@ -1124,7 +1136,7 @@
         <v>63</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>33</v>
@@ -1308,7 +1320,7 @@
         <v>79</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>33</v>
@@ -1331,7 +1343,7 @@
         <v>81</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>33</v>
@@ -1377,7 +1389,7 @@
         <v>85</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>33</v>
@@ -1400,7 +1412,7 @@
         <v>87</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>33</v>
@@ -1486,19 +1498,19 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B42" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B42" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="C42" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
@@ -1509,19 +1521,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>95</v>
+        <v>31</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>35</v>
+        <v>97</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>96</v>
+        <v>33</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>36</v>
+        <v>98</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -1532,19 +1544,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1555,19 +1567,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1578,19 +1590,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1601,19 +1613,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1624,19 +1636,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1647,19 +1659,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1670,19 +1682,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1693,19 +1705,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1716,19 +1728,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1739,19 +1751,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1762,19 +1774,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1785,19 +1797,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1808,19 +1820,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1831,19 +1843,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1854,19 +1866,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1877,19 +1889,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1900,19 +1912,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1923,19 +1935,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1946,19 +1958,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1969,19 +1981,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1992,19 +2004,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2015,19 +2027,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2038,19 +2050,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2061,19 +2073,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2084,19 +2096,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2107,19 +2119,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2130,19 +2142,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2153,19 +2165,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2176,19 +2188,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2199,19 +2211,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>32</v>
+        <v>91</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>34</v>
+        <v>92</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2222,19 +2234,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>35</v>
+        <v>93</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>36</v>
+        <v>94</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2245,10 +2257,10 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
@@ -2257,7 +2269,7 @@
         <v>100</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2268,10 +2280,10 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B76" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>102</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
@@ -2280,7 +2292,7 @@
         <v>100</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2291,19 +2303,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2314,19 +2326,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2337,19 +2349,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>41</v>
+        <v>103</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>42</v>
+        <v>105</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2360,19 +2372,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B80" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D80" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C80" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>100</v>
-      </c>
       <c r="E80" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2383,19 +2395,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>106</v>
+        <v>37</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>107</v>
+        <v>38</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2406,19 +2418,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2429,16 +2441,16 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>108</v>
+        <v>45</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>46</v>
@@ -2452,19 +2464,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>47</v>
+        <v>108</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>48</v>
+        <v>109</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2475,19 +2487,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>50</v>
+        <v>111</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2498,19 +2510,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2521,19 +2533,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>53</v>
+        <v>112</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2544,19 +2556,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>110</v>
+        <v>51</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>111</v>
+        <v>52</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2567,19 +2579,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>85</v>
+        <v>113</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>86</v>
+        <v>54</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2590,19 +2602,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>87</v>
+        <v>55</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>88</v>
+        <v>56</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2613,19 +2625,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>89</v>
+        <v>57</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>90</v>
+        <v>58</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2636,19 +2648,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>91</v>
+        <v>114</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>92</v>
+        <v>115</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2659,19 +2671,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>55</v>
+        <v>89</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>56</v>
+        <v>90</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2682,19 +2694,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>115</v>
+        <v>92</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2705,19 +2717,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>116</v>
+        <v>93</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2728,19 +2740,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>118</v>
+        <v>95</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2751,19 +2763,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2774,19 +2786,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2797,19 +2809,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2820,19 +2832,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2843,19 +2855,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>113</v>
+        <v>59</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2866,19 +2878,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2889,19 +2901,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B103" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B103" s="2" t="s">
+      <c r="C103" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D103" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C103" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D103" s="2" t="s">
+      <c r="E103" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="E103" s="2" t="s">
-        <v>119</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2912,7 +2924,7 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>129</v>
@@ -2921,7 +2933,7 @@
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>130</v>
@@ -2935,19 +2947,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -2958,19 +2970,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -2981,19 +2993,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -3004,19 +3016,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3027,19 +3039,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3050,19 +3062,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3073,19 +3085,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3096,19 +3108,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B112" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="B112" s="2" t="s">
-        <v>147</v>
-      </c>
       <c r="C112" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3119,24 +3131,116 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G113" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G114" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B115" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="B113" s="2" t="s">
+      <c r="C115" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E115" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="C113" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E113" s="2" t="s">
+      <c r="F115" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B116" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="F113" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G113" s="2" t="s">
+      <c r="C116" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="F116" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G116" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="F117" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G117" s="2" t="s">
         <v>24</v>
       </c>
     </row>
